--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3121.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3121.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.539769025952833</v>
+        <v>2.016154050827026</v>
       </c>
       <c r="B1">
-        <v>2.150614623858002</v>
+        <v>2.483772993087769</v>
       </c>
       <c r="C1">
-        <v>3.854375267341842</v>
+        <v>2.584987878799438</v>
       </c>
       <c r="D1">
-        <v>4.386946388142797</v>
+        <v>3.293428182601929</v>
       </c>
       <c r="E1">
-        <v>0.6031406469521732</v>
+        <v>1.080365061759949</v>
       </c>
     </row>
   </sheetData>
